--- a/PLP/PLP Documents/ProjectTracking/Time Sheets/Timesheet_Aishwarya.xlsx
+++ b/PLP/PLP Documents/ProjectTracking/Time Sheets/Timesheet_Aishwarya.xlsx
@@ -484,7 +484,7 @@
     <t>Aishwarya Mankar</t>
   </si>
   <si>
-    <t>Employee Details</t>
+    <t>Expense Management System</t>
   </si>
 </sst>
 </file>
@@ -38797,15 +38797,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CB664C91369D984991AEE386D876C869" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a51899a532c37e5ca61817437f4815f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2f9e500-2a4f-403e-abb1-514215aa6ea6" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45d205d1640a34948cbc94912e7cd74a" ns2:_="" ns3:_="">
     <xsd:import namespace="f2f9e500-2a4f-403e-abb1-514215aa6ea6"/>
@@ -38975,6 +38966,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95452CED-D397-4E26-AEF7-4EE457526AE5}">
   <ds:schemaRefs>
@@ -38993,14 +38993,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1B4EF1-886D-4F1E-ADA1-4B2EF58A5B87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48B3878E-BF18-4A7A-AC52-778A9A934D60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39017,4 +39009,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1B4EF1-886D-4F1E-ADA1-4B2EF58A5B87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>